--- a/data/不背日语数据字典.xlsx
+++ b/data/不背日语数据字典.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitee\bubei\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A94536-2175-4713-9CE7-CC656AF8A2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA206E3-C2A8-4542-A1CE-2C502036D3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4008" yWindow="3480" windowWidth="11064" windowHeight="5856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="不背单词" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="155">
   <si>
     <t>表名</t>
   </si>
@@ -613,6 +613,10 @@
   </si>
   <si>
     <t>背景图链接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词书索引</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -876,18 +880,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -906,6 +898,24 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,12 +923,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1237,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFA146"/>
+  <dimension ref="A1:XFA148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2220,10 +2224,10 @@
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1"/>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="39">
+      <c r="A24" s="35">
         <v>2</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="35" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="16">
@@ -2250,8 +2254,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="16">
         <v>2</v>
       </c>
@@ -2270,8 +2274,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="15" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="16">
         <v>3</v>
       </c>
@@ -2290,8 +2294,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="16">
         <v>4</v>
       </c>
@@ -2310,8 +2314,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="16">
         <v>4</v>
       </c>
@@ -2330,8 +2334,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="16">
         <v>5</v>
       </c>
@@ -2350,8 +2354,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="16">
         <v>6</v>
       </c>
@@ -2370,8 +2374,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="16">
         <v>7</v>
       </c>
@@ -2390,8 +2394,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="16">
         <v>8</v>
       </c>
@@ -2410,8 +2414,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="16">
         <v>9</v>
       </c>
@@ -2430,8 +2434,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="16">
         <v>10</v>
       </c>
@@ -2450,8 +2454,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="16">
         <v>11</v>
       </c>
@@ -2470,8 +2474,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="16">
         <v>12</v>
       </c>
@@ -2490,8 +2494,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="16">
         <v>13</v>
       </c>
@@ -2512,8 +2516,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" s="11" customFormat="1">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="16">
         <v>14</v>
       </c>
@@ -2534,8 +2538,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" s="11" customFormat="1">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="16">
         <v>15</v>
       </c>
@@ -2556,8 +2560,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" s="11" customFormat="1">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="16">
         <v>16</v>
       </c>
@@ -2578,8 +2582,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" s="11" customFormat="1">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="16">
         <v>17</v>
       </c>
@@ -2600,10 +2604,10 @@
       </c>
     </row>
     <row r="43" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A43" s="42">
+      <c r="A43" s="38">
         <v>3</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="38" t="s">
         <v>90</v>
       </c>
       <c r="C43" s="21">
@@ -2630,8 +2634,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="21">
         <v>2</v>
       </c>
@@ -2650,8 +2654,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="21">
         <v>3</v>
       </c>
@@ -2670,8 +2674,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="21">
         <v>4</v>
       </c>
@@ -2690,8 +2694,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="21">
         <v>4</v>
       </c>
@@ -2710,8 +2714,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="21">
         <v>5</v>
       </c>
@@ -2730,8 +2734,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="21">
         <v>6</v>
       </c>
@@ -2750,8 +2754,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="21">
         <v>7</v>
       </c>
@@ -2770,8 +2774,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" s="20" customFormat="1">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="21">
         <v>8</v>
       </c>
@@ -2792,8 +2796,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" s="20" customFormat="1">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="21">
         <v>9</v>
       </c>
@@ -2814,8 +2818,8 @@
       </c>
     </row>
     <row r="53" spans="1:10" s="20" customFormat="1">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="21">
         <v>10</v>
       </c>
@@ -2836,8 +2840,8 @@
       </c>
     </row>
     <row r="54" spans="1:10" s="20" customFormat="1">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="21">
         <v>11</v>
       </c>
@@ -2858,8 +2862,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" s="20" customFormat="1">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="21">
         <v>12</v>
       </c>
@@ -2880,10 +2884,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A57" s="36">
+      <c r="A57" s="41">
         <v>4</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="41" t="s">
         <v>99</v>
       </c>
       <c r="C57" s="23">
@@ -2910,8 +2914,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="23">
         <v>2</v>
       </c>
@@ -2932,8 +2936,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="23">
         <v>3</v>
       </c>
@@ -2954,8 +2958,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="23">
         <v>5</v>
       </c>
@@ -2974,8 +2978,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="23">
         <v>6</v>
       </c>
@@ -2994,8 +2998,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="23">
         <v>7</v>
       </c>
@@ -3014,8 +3018,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" s="20" customFormat="1">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="23">
         <v>8</v>
       </c>
@@ -3036,8 +3040,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" s="20" customFormat="1">
-      <c r="A64" s="37"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="23">
         <v>9</v>
       </c>
@@ -3058,8 +3062,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" s="20" customFormat="1">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="23">
         <v>10</v>
       </c>
@@ -3080,8 +3084,8 @@
       </c>
     </row>
     <row r="66" spans="1:10" s="20" customFormat="1">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="23">
         <v>11</v>
       </c>
@@ -3102,8 +3106,8 @@
       </c>
     </row>
     <row r="67" spans="1:10" s="20" customFormat="1">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="23">
         <v>12</v>
       </c>
@@ -3386,8 +3390,8 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="20" customFormat="1">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="30">
         <v>12</v>
       </c>
@@ -3408,10 +3412,10 @@
       </c>
     </row>
     <row r="83" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A83" s="36">
+      <c r="A83" s="41">
         <v>6</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="41" t="s">
         <v>123</v>
       </c>
       <c r="C83" s="23">
@@ -3438,8 +3442,8 @@
       </c>
     </row>
     <row r="84" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="23">
         <v>2</v>
       </c>
@@ -3458,8 +3462,8 @@
       </c>
     </row>
     <row r="85" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A85" s="37"/>
-      <c r="B85" s="37"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
       <c r="C85" s="23">
         <v>3</v>
       </c>
@@ -3478,8 +3482,8 @@
       </c>
     </row>
     <row r="86" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="23">
         <v>4</v>
       </c>
@@ -3498,8 +3502,8 @@
       </c>
     </row>
     <row r="87" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
       <c r="C87" s="23">
         <v>5</v>
       </c>
@@ -3518,8 +3522,8 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="23">
         <v>6</v>
       </c>
@@ -3538,8 +3542,8 @@
       </c>
     </row>
     <row r="89" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
       <c r="C89" s="23">
         <v>7</v>
       </c>
@@ -3558,8 +3562,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="20" customFormat="1">
-      <c r="A90" s="37"/>
-      <c r="B90" s="37"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
       <c r="C90" s="23">
         <v>8</v>
       </c>
@@ -3580,8 +3584,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" s="20" customFormat="1">
-      <c r="A91" s="37"/>
-      <c r="B91" s="37"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="23">
         <v>9</v>
       </c>
@@ -3602,8 +3606,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" s="20" customFormat="1">
-      <c r="A92" s="37"/>
-      <c r="B92" s="37"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="23">
         <v>10</v>
       </c>
@@ -3624,8 +3628,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" s="20" customFormat="1">
-      <c r="A93" s="37"/>
-      <c r="B93" s="37"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="23">
         <v>11</v>
       </c>
@@ -3646,8 +3650,8 @@
       </c>
     </row>
     <row r="94" spans="1:10" s="20" customFormat="1">
-      <c r="A94" s="38"/>
-      <c r="B94" s="38"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="23">
         <v>12</v>
       </c>
@@ -3890,8 +3894,8 @@
       </c>
     </row>
     <row r="106" spans="1:10" s="20" customFormat="1">
-      <c r="A106" s="35"/>
-      <c r="B106" s="35"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="30">
         <v>11</v>
       </c>
@@ -3912,10 +3916,10 @@
       </c>
     </row>
     <row r="109" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A109" s="36">
+      <c r="A109" s="41">
         <v>8</v>
       </c>
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="41" t="s">
         <v>135</v>
       </c>
       <c r="C109" s="23">
@@ -3942,8 +3946,8 @@
       </c>
     </row>
     <row r="110" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A110" s="37"/>
-      <c r="B110" s="37"/>
+      <c r="A110" s="42"/>
+      <c r="B110" s="42"/>
       <c r="C110" s="23">
         <v>2</v>
       </c>
@@ -3964,8 +3968,8 @@
       </c>
     </row>
     <row r="111" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
+      <c r="A111" s="42"/>
+      <c r="B111" s="42"/>
       <c r="C111" s="23">
         <v>3</v>
       </c>
@@ -3986,73 +3990,75 @@
       </c>
     </row>
     <row r="112" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A112" s="37"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="23">
+      <c r="A112" s="42"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="30">
+        <v>3</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="20" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A113" s="42"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="23">
         <v>4</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="D113" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H112" s="23"/>
-      <c r="I112" s="23"/>
-      <c r="J112" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="23">
-        <v>5</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>144</v>
       </c>
       <c r="E113" s="23"/>
       <c r="F113" s="23"/>
       <c r="G113" s="24" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="H113" s="23"/>
       <c r="I113" s="23"/>
       <c r="J113" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A114" s="37"/>
-      <c r="B114" s="37"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A114" s="42"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
       <c r="G114" s="24" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="H114" s="23"/>
       <c r="I114" s="23"/>
       <c r="J114" s="24" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A115" s="37"/>
-      <c r="B115" s="37"/>
+      <c r="A115" s="42"/>
+      <c r="B115" s="42"/>
       <c r="C115" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
@@ -4062,17 +4068,17 @@
       <c r="H115" s="23"/>
       <c r="I115" s="23"/>
       <c r="J115" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A116" s="37"/>
-      <c r="B116" s="37"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="42"/>
       <c r="C116" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
@@ -4082,157 +4088,151 @@
       <c r="H116" s="23"/>
       <c r="I116" s="23"/>
       <c r="J116" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="20" customFormat="1">
-      <c r="A117" s="37"/>
-      <c r="B117" s="37"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A117" s="42"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E117" s="23"/>
       <c r="F117" s="23"/>
       <c r="G117" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H117" s="23">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H117" s="23"/>
       <c r="I117" s="23"/>
       <c r="J117" s="24" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="20" customFormat="1">
-      <c r="A118" s="37"/>
-      <c r="B118" s="37"/>
+      <c r="A118" s="42"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E118" s="23"/>
       <c r="F118" s="23"/>
       <c r="G118" s="24" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H118" s="23">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="I118" s="23"/>
       <c r="J118" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="20" customFormat="1">
-      <c r="A119" s="37"/>
-      <c r="B119" s="37"/>
+      <c r="A119" s="42"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E119" s="23"/>
       <c r="F119" s="23"/>
       <c r="G119" s="24" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H119" s="23">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I119" s="23"/>
       <c r="J119" s="24" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:10" s="20" customFormat="1">
-      <c r="A120" s="37"/>
-      <c r="B120" s="37"/>
+      <c r="A120" s="42"/>
+      <c r="B120" s="42"/>
       <c r="C120" s="23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
       <c r="G120" s="24" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="H120" s="23">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I120" s="23"/>
       <c r="J120" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:10" s="20" customFormat="1">
-      <c r="A121" s="38"/>
-      <c r="B121" s="38"/>
+      <c r="A121" s="42"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
       <c r="G121" s="24" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H121" s="23">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I121" s="23"/>
       <c r="J121" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="20" customFormat="1">
+      <c r="A122" s="43"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="23">
+        <v>13</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H122" s="23">
+        <v>0</v>
+      </c>
+      <c r="I122" s="23"/>
+      <c r="J122" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A123" s="33">
+    <row r="124" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A124" s="33">
         <v>9</v>
       </c>
-      <c r="B123" s="33" t="s">
+      <c r="B124" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C123" s="30">
+      <c r="C124" s="30">
         <v>1</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D124" s="31" t="s">
         <v>141</v>
-      </c>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H123" s="30">
-        <v>32</v>
-      </c>
-      <c r="I123" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="J123" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A124" s="34"/>
-      <c r="B124" s="34"/>
-      <c r="C124" s="30">
-        <v>2</v>
-      </c>
-      <c r="D124" s="31" t="s">
-        <v>56</v>
       </c>
       <c r="E124" s="30"/>
       <c r="F124" s="30" t="s">
@@ -4241,20 +4241,24 @@
       <c r="G124" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H124" s="30"/>
-      <c r="I124" s="30"/>
+      <c r="H124" s="30">
+        <v>32</v>
+      </c>
+      <c r="I124" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="J124" s="31" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
       <c r="A125" s="34"/>
       <c r="B125" s="34"/>
       <c r="C125" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E125" s="30"/>
       <c r="F125" s="30" t="s">
@@ -4266,77 +4270,81 @@
       <c r="H125" s="30"/>
       <c r="I125" s="30"/>
       <c r="J125" s="31" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
       <c r="A126" s="34"/>
       <c r="B126" s="34"/>
       <c r="C126" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="E126" s="30"/>
-      <c r="F126" s="30"/>
+      <c r="F126" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="G126" s="31" t="s">
         <v>29</v>
       </c>
       <c r="H126" s="30"/>
       <c r="I126" s="30"/>
       <c r="J126" s="31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
       <c r="A127" s="34"/>
       <c r="B127" s="34"/>
       <c r="C127" s="30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="E127" s="30"/>
-      <c r="F127" s="30"/>
+      <c r="F127" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="G127" s="31" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H127" s="30"/>
       <c r="I127" s="30"/>
       <c r="J127" s="31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
       <c r="A128" s="34"/>
       <c r="B128" s="34"/>
       <c r="C128" s="30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="E128" s="30"/>
       <c r="F128" s="30"/>
       <c r="G128" s="31" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H128" s="30"/>
       <c r="I128" s="30"/>
       <c r="J128" s="31" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A129" s="34"/>
       <c r="B129" s="34"/>
       <c r="C129" s="30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E129" s="30"/>
       <c r="F129" s="30"/>
@@ -4346,83 +4354,79 @@
       <c r="H129" s="30"/>
       <c r="I129" s="30"/>
       <c r="J129" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" s="20" customFormat="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A130" s="34"/>
       <c r="B130" s="34"/>
       <c r="C130" s="30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E130" s="30"/>
       <c r="F130" s="30"/>
       <c r="G130" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H130" s="30">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H130" s="30"/>
       <c r="I130" s="30"/>
       <c r="J130" s="31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" s="20" customFormat="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
       <c r="A131" s="34"/>
       <c r="B131" s="34"/>
       <c r="C131" s="30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E131" s="30"/>
       <c r="F131" s="30"/>
       <c r="G131" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H131" s="30">
-        <v>64</v>
-      </c>
+      <c r="H131" s="30"/>
       <c r="I131" s="30"/>
       <c r="J131" s="31" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="20" customFormat="1">
       <c r="A132" s="34"/>
       <c r="B132" s="34"/>
       <c r="C132" s="30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E132" s="30"/>
       <c r="F132" s="30"/>
       <c r="G132" s="31" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="H132" s="30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I132" s="30"/>
       <c r="J132" s="31" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="20" customFormat="1">
       <c r="A133" s="34"/>
       <c r="B133" s="34"/>
       <c r="C133" s="30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E133" s="30"/>
       <c r="F133" s="30"/>
@@ -4434,109 +4438,113 @@
       </c>
       <c r="I133" s="30"/>
       <c r="J133" s="31" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="20" customFormat="1">
-      <c r="A134" s="35"/>
-      <c r="B134" s="35"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="34"/>
       <c r="C134" s="30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E134" s="30"/>
       <c r="F134" s="30"/>
       <c r="G134" s="31" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="H134" s="30">
         <v>0</v>
       </c>
       <c r="I134" s="30"/>
       <c r="J134" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="20" customFormat="1">
+      <c r="A135" s="34"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="30">
+        <v>11</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="30">
+        <v>64</v>
+      </c>
+      <c r="I135" s="30"/>
+      <c r="J135" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="20" customFormat="1">
+      <c r="A136" s="44"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="30">
+        <v>12</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" s="30">
+        <v>0</v>
+      </c>
+      <c r="I136" s="30"/>
+      <c r="J136" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="36">
+    <row r="138" spans="1:10">
+      <c r="A138" s="41">
         <v>10</v>
       </c>
-      <c r="B136" s="36" t="s">
+      <c r="B138" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C136" s="23">
+      <c r="C138" s="23">
         <v>1</v>
       </c>
-      <c r="D136" s="24" t="s">
+      <c r="D138" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E136" s="23"/>
-      <c r="F136" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="24" t="s">
+      <c r="E138" s="23"/>
+      <c r="F138" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H136" s="23">
+      <c r="H138" s="23">
         <v>32</v>
       </c>
-      <c r="I136" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J136" s="24" t="s">
+      <c r="I138" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J138" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
-      <c r="A137" s="37"/>
-      <c r="B137" s="37"/>
-      <c r="C137" s="23">
+    <row r="139" spans="1:10">
+      <c r="A139" s="42"/>
+      <c r="B139" s="42"/>
+      <c r="C139" s="23">
         <v>2</v>
       </c>
-      <c r="D137" s="24" t="s">
+      <c r="D139" s="24" t="s">
         <v>149</v>
-      </c>
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" s="23"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="A138" s="37"/>
-      <c r="B138" s="37"/>
-      <c r="C138" s="23">
-        <v>3</v>
-      </c>
-      <c r="D138" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E138" s="23"/>
-      <c r="F138" s="23"/>
-      <c r="G138" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H138" s="23"/>
-      <c r="I138" s="23"/>
-      <c r="J138" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="A139" s="37"/>
-      <c r="B139" s="37"/>
-      <c r="C139" s="23">
-        <v>4</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>68</v>
       </c>
       <c r="E139" s="23"/>
       <c r="F139" s="23"/>
@@ -4546,17 +4554,17 @@
       <c r="H139" s="23"/>
       <c r="I139" s="23"/>
       <c r="J139" s="24" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="37"/>
-      <c r="B140" s="37"/>
+      <c r="A140" s="42"/>
+      <c r="B140" s="42"/>
       <c r="C140" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="E140" s="23"/>
       <c r="F140" s="23"/>
@@ -4566,17 +4574,17 @@
       <c r="H140" s="23"/>
       <c r="I140" s="23"/>
       <c r="J140" s="24" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="37"/>
-      <c r="B141" s="37"/>
+      <c r="A141" s="42"/>
+      <c r="B141" s="42"/>
       <c r="C141" s="23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E141" s="23"/>
       <c r="F141" s="23"/>
@@ -4586,83 +4594,79 @@
       <c r="H141" s="23"/>
       <c r="I141" s="23"/>
       <c r="J141" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="37"/>
-      <c r="B142" s="37"/>
+      <c r="A142" s="42"/>
+      <c r="B142" s="42"/>
       <c r="C142" s="23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E142" s="23"/>
       <c r="F142" s="23"/>
       <c r="G142" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H142" s="23">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H142" s="23"/>
       <c r="I142" s="23"/>
       <c r="J142" s="24" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="37"/>
-      <c r="B143" s="37"/>
+      <c r="A143" s="42"/>
+      <c r="B143" s="42"/>
       <c r="C143" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E143" s="23"/>
       <c r="F143" s="23"/>
       <c r="G143" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H143" s="23">
-        <v>64</v>
-      </c>
+      <c r="H143" s="23"/>
       <c r="I143" s="23"/>
       <c r="J143" s="24" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="37"/>
-      <c r="B144" s="37"/>
+      <c r="A144" s="42"/>
+      <c r="B144" s="42"/>
       <c r="C144" s="23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>
       <c r="G144" s="24" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="H144" s="23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I144" s="23"/>
       <c r="J144" s="24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="37"/>
-      <c r="B145" s="37"/>
+      <c r="A145" s="42"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E145" s="23"/>
       <c r="F145" s="23"/>
@@ -4674,53 +4678,97 @@
       </c>
       <c r="I145" s="23"/>
       <c r="J145" s="24" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="38"/>
-      <c r="B146" s="38"/>
+      <c r="A146" s="42"/>
+      <c r="B146" s="42"/>
       <c r="C146" s="23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E146" s="23"/>
       <c r="F146" s="23"/>
       <c r="G146" s="24" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="H146" s="23">
         <v>0</v>
       </c>
       <c r="I146" s="23"/>
       <c r="J146" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="42"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="23">
+        <v>10</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" s="23">
+        <v>64</v>
+      </c>
+      <c r="I147" s="23"/>
+      <c r="J147" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="43"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="23">
+        <v>11</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H148" s="23">
+        <v>0</v>
+      </c>
+      <c r="I148" s="23"/>
+      <c r="J148" s="24" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A124:A136"/>
+    <mergeCell ref="B124:B136"/>
+    <mergeCell ref="A138:A148"/>
+    <mergeCell ref="B138:B148"/>
+    <mergeCell ref="A96:A106"/>
+    <mergeCell ref="B96:B106"/>
+    <mergeCell ref="A109:A122"/>
+    <mergeCell ref="B109:B122"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="A69:A81"/>
+    <mergeCell ref="B69:B81"/>
+    <mergeCell ref="A83:A94"/>
+    <mergeCell ref="B83:B94"/>
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="A24:A41"/>
     <mergeCell ref="B3:B22"/>
     <mergeCell ref="B24:B41"/>
     <mergeCell ref="A43:A55"/>
     <mergeCell ref="B43:B55"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B57:B67"/>
-    <mergeCell ref="A69:A81"/>
-    <mergeCell ref="B69:B81"/>
-    <mergeCell ref="A83:A94"/>
-    <mergeCell ref="B83:B94"/>
-    <mergeCell ref="A123:A134"/>
-    <mergeCell ref="B123:B134"/>
-    <mergeCell ref="A136:A146"/>
-    <mergeCell ref="B136:B146"/>
-    <mergeCell ref="A96:A106"/>
-    <mergeCell ref="B96:B106"/>
-    <mergeCell ref="A109:A121"/>
-    <mergeCell ref="B109:B121"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5280,10 +5328,10 @@
       <c r="XFA2"/>
     </row>
     <row r="3" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A3" s="48">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9">
@@ -5310,8 +5358,8 @@
       </c>
     </row>
     <row r="4" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="9">
         <v>2</v>
       </c>
@@ -5330,8 +5378,8 @@
       </c>
     </row>
     <row r="5" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="9">
         <v>2</v>
       </c>
@@ -5350,8 +5398,8 @@
       </c>
     </row>
     <row r="6" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="9">
         <v>3</v>
       </c>
@@ -5372,8 +5420,8 @@
       </c>
     </row>
     <row r="7" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="9">
         <v>4</v>
       </c>
@@ -5392,8 +5440,8 @@
       </c>
     </row>
     <row r="8" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="9">
         <v>5</v>
       </c>
@@ -5412,8 +5460,8 @@
       </c>
     </row>
     <row r="9" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="9">
         <v>6</v>
       </c>
@@ -5432,8 +5480,8 @@
       </c>
     </row>
     <row r="10" spans="1:27 16127:16381" s="11" customFormat="1">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="9">
         <v>7</v>
       </c>
@@ -5454,8 +5502,8 @@
       </c>
     </row>
     <row r="11" spans="1:27 16127:16381" s="11" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="9">
         <v>8</v>
       </c>
@@ -5476,8 +5524,8 @@
       </c>
     </row>
     <row r="12" spans="1:27 16127:16381" s="15" customFormat="1">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="9">
         <v>9</v>
       </c>
@@ -5742,8 +5790,8 @@
       <c r="XFA12" s="14"/>
     </row>
     <row r="13" spans="1:27 16127:16381" s="11" customFormat="1">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="9">
         <v>10</v>
       </c>
@@ -5764,8 +5812,8 @@
       </c>
     </row>
     <row r="14" spans="1:27 16127:16381" s="11" customFormat="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="9">
         <v>11</v>
       </c>
@@ -5786,8 +5834,8 @@
       </c>
     </row>
     <row r="15" spans="1:27 16127:16381" s="11" customFormat="1">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="9">
         <v>12</v>
       </c>
@@ -5808,8 +5856,8 @@
       </c>
     </row>
     <row r="16" spans="1:27 16127:16381" s="11" customFormat="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="9">
         <v>13</v>
       </c>
@@ -5831,10 +5879,10 @@
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1"/>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A18" s="39">
+      <c r="A18" s="35">
         <v>2</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="35" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="16">
@@ -5861,8 +5909,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="16">
         <v>2</v>
       </c>
@@ -5881,8 +5929,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="15" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="16">
         <v>3</v>
       </c>
@@ -5901,8 +5949,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="16">
         <v>4</v>
       </c>
@@ -5921,8 +5969,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="16">
         <v>4</v>
       </c>
@@ -5941,8 +5989,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="16">
         <v>5</v>
       </c>
@@ -5961,8 +6009,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="16">
         <v>6</v>
       </c>
@@ -5981,8 +6029,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="16">
         <v>7</v>
       </c>
@@ -6001,8 +6049,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="16">
         <v>8</v>
       </c>
@@ -6021,8 +6069,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="16">
         <v>9</v>
       </c>
@@ -6041,8 +6089,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="16">
         <v>10</v>
       </c>
@@ -6061,8 +6109,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="16">
         <v>11</v>
       </c>
@@ -6081,8 +6129,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="16">
         <v>12</v>
       </c>
@@ -6101,8 +6149,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="16">
         <v>13</v>
       </c>
@@ -6123,8 +6171,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="16">
         <v>14</v>
       </c>
@@ -6145,8 +6193,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="16">
         <v>15</v>
       </c>
@@ -6167,8 +6215,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="16">
         <v>16</v>
       </c>
@@ -6189,8 +6237,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="16">
         <v>17</v>
       </c>
@@ -6211,10 +6259,10 @@
       </c>
     </row>
     <row r="37" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A37" s="42">
+      <c r="A37" s="38">
         <v>3</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="38" t="s">
         <v>90</v>
       </c>
       <c r="C37" s="21">
@@ -6241,8 +6289,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="21">
         <v>2</v>
       </c>
@@ -6261,8 +6309,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="21">
         <v>3</v>
       </c>
@@ -6281,8 +6329,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="21">
         <v>4</v>
       </c>
@@ -6301,8 +6349,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="21">
         <v>4</v>
       </c>
@@ -6321,8 +6369,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="21">
         <v>5</v>
       </c>
@@ -6341,8 +6389,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="21">
         <v>6</v>
       </c>
@@ -6361,8 +6409,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="21">
         <v>7</v>
       </c>
@@ -6381,8 +6429,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" s="20" customFormat="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="21">
         <v>8</v>
       </c>
@@ -6403,8 +6451,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" s="20" customFormat="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="21">
         <v>9</v>
       </c>
@@ -6425,8 +6473,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" s="20" customFormat="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="21">
         <v>10</v>
       </c>
@@ -6447,8 +6495,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" s="20" customFormat="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="21">
         <v>11</v>
       </c>
@@ -6469,8 +6517,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" s="20" customFormat="1">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="21">
         <v>12</v>
       </c>
@@ -6491,10 +6539,10 @@
       </c>
     </row>
     <row r="51" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A51" s="36">
+      <c r="A51" s="41">
         <v>4</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="41" t="s">
         <v>99</v>
       </c>
       <c r="C51" s="23">
@@ -6521,8 +6569,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="23">
         <v>2</v>
       </c>
@@ -6541,8 +6589,8 @@
       </c>
     </row>
     <row r="53" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="23">
         <v>3</v>
       </c>
@@ -6561,8 +6609,8 @@
       </c>
     </row>
     <row r="54" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="23">
         <v>5</v>
       </c>
@@ -6581,8 +6629,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="23">
         <v>6</v>
       </c>
@@ -6601,8 +6649,8 @@
       </c>
     </row>
     <row r="56" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="23">
         <v>7</v>
       </c>
@@ -6621,8 +6669,8 @@
       </c>
     </row>
     <row r="57" spans="1:10" s="20" customFormat="1">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="23">
         <v>8</v>
       </c>
@@ -6643,8 +6691,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" s="20" customFormat="1">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="23">
         <v>9</v>
       </c>
@@ -6665,8 +6713,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" s="20" customFormat="1">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="23">
         <v>10</v>
       </c>
@@ -6687,8 +6735,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" s="20" customFormat="1">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="23">
         <v>11</v>
       </c>
@@ -6709,8 +6757,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" s="20" customFormat="1">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="23">
         <v>12</v>
       </c>
@@ -6731,10 +6779,10 @@
       </c>
     </row>
     <row r="63" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A63" s="45">
+      <c r="A63" s="47">
         <v>5</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="47" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="25">
@@ -6761,8 +6809,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A64" s="46"/>
-      <c r="B64" s="46"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="25">
         <v>2</v>
       </c>
@@ -6781,8 +6829,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="25">
         <v>3</v>
       </c>
@@ -6801,8 +6849,8 @@
       </c>
     </row>
     <row r="66" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A66" s="46"/>
-      <c r="B66" s="46"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="25">
         <v>4</v>
       </c>
@@ -6821,8 +6869,8 @@
       </c>
     </row>
     <row r="67" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="25">
         <v>5</v>
       </c>
@@ -6841,8 +6889,8 @@
       </c>
     </row>
     <row r="68" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="25">
         <v>6</v>
       </c>
@@ -6861,8 +6909,8 @@
       </c>
     </row>
     <row r="69" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A69" s="46"/>
-      <c r="B69" s="46"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="48"/>
       <c r="C69" s="25">
         <v>7</v>
       </c>
@@ -6881,8 +6929,8 @@
       </c>
     </row>
     <row r="70" spans="1:10" s="14" customFormat="1">
-      <c r="A70" s="46"/>
-      <c r="B70" s="46"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="25">
         <v>8</v>
       </c>
@@ -6903,8 +6951,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" s="14" customFormat="1">
-      <c r="A71" s="46"/>
-      <c r="B71" s="46"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="25">
         <v>9</v>
       </c>
@@ -6925,8 +6973,8 @@
       </c>
     </row>
     <row r="72" spans="1:10" s="14" customFormat="1">
-      <c r="A72" s="46"/>
-      <c r="B72" s="46"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="25">
         <v>10</v>
       </c>
@@ -6947,8 +6995,8 @@
       </c>
     </row>
     <row r="73" spans="1:10" s="14" customFormat="1">
-      <c r="A73" s="46"/>
-      <c r="B73" s="46"/>
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="25">
         <v>11</v>
       </c>
@@ -6969,8 +7017,8 @@
       </c>
     </row>
     <row r="74" spans="1:10" s="14" customFormat="1">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="49"/>
       <c r="C74" s="25">
         <v>12</v>
       </c>
@@ -6992,10 +7040,10 @@
     </row>
     <row r="75" spans="1:10" s="27" customFormat="1"/>
     <row r="76" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A76" s="45">
+      <c r="A76" s="47">
         <v>3</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="47" t="s">
         <v>92</v>
       </c>
       <c r="C76" s="25">
@@ -7022,8 +7070,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A77" s="46"/>
-      <c r="B77" s="46"/>
+      <c r="A77" s="48"/>
+      <c r="B77" s="48"/>
       <c r="C77" s="25">
         <v>2</v>
       </c>
@@ -7042,8 +7090,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" s="15" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A78" s="46"/>
-      <c r="B78" s="46"/>
+      <c r="A78" s="48"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="25">
         <v>3</v>
       </c>
@@ -7062,8 +7110,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A79" s="46"/>
-      <c r="B79" s="46"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="48"/>
       <c r="C79" s="25">
         <v>10</v>
       </c>
@@ -7082,8 +7130,8 @@
       </c>
     </row>
     <row r="80" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A80" s="46"/>
-      <c r="B80" s="46"/>
+      <c r="A80" s="48"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="25">
         <v>11</v>
       </c>
@@ -7102,8 +7150,8 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A81" s="46"/>
-      <c r="B81" s="46"/>
+      <c r="A81" s="48"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="25">
         <v>12</v>
       </c>
@@ -7122,8 +7170,8 @@
       </c>
     </row>
     <row r="82" spans="1:10" s="14" customFormat="1">
-      <c r="A82" s="46"/>
-      <c r="B82" s="46"/>
+      <c r="A82" s="48"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="25">
         <v>13</v>
       </c>
@@ -7144,8 +7192,8 @@
       </c>
     </row>
     <row r="83" spans="1:10" s="14" customFormat="1">
-      <c r="A83" s="46"/>
-      <c r="B83" s="46"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="25">
         <v>14</v>
       </c>
@@ -7166,8 +7214,8 @@
       </c>
     </row>
     <row r="84" spans="1:10" s="14" customFormat="1">
-      <c r="A84" s="46"/>
-      <c r="B84" s="46"/>
+      <c r="A84" s="48"/>
+      <c r="B84" s="48"/>
       <c r="C84" s="25">
         <v>15</v>
       </c>
@@ -7188,8 +7236,8 @@
       </c>
     </row>
     <row r="85" spans="1:10" s="14" customFormat="1">
-      <c r="A85" s="46"/>
-      <c r="B85" s="46"/>
+      <c r="A85" s="48"/>
+      <c r="B85" s="48"/>
       <c r="C85" s="25">
         <v>16</v>
       </c>
@@ -7210,8 +7258,8 @@
       </c>
     </row>
     <row r="86" spans="1:10" s="14" customFormat="1">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="25">
         <v>17</v>
       </c>
@@ -7233,18 +7281,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A51:A61"/>
+    <mergeCell ref="B51:B61"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="B63:B74"/>
+    <mergeCell ref="A76:A86"/>
+    <mergeCell ref="B76:B86"/>
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="A18:A35"/>
     <mergeCell ref="B18:B35"/>
     <mergeCell ref="A37:A49"/>
     <mergeCell ref="B37:B49"/>
-    <mergeCell ref="A51:A61"/>
-    <mergeCell ref="B51:B61"/>
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="B63:B74"/>
-    <mergeCell ref="A76:A86"/>
-    <mergeCell ref="B76:B86"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
